--- a/doc/邮寄表.xlsx
+++ b/doc/邮寄表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,38 +66,106 @@
     <t>505,Building C,Lijing Garden,No.48,Middle Qianjin Road,Kunshan,Suzhou City,Jiangsu Province,215301,P.R.C.</t>
   </si>
   <si>
+    <t>Duan Lingling</t>
+  </si>
+  <si>
+    <t>902,Building 3,Er Qi,Yunkai Xiyuan,Huanghe Road,Xiaohe District,Guiyang,Guizhou Province,550000,P.R.C.</t>
+  </si>
+  <si>
+    <t>Sun Xiaolan</t>
+  </si>
+  <si>
+    <t>3--3,Unit 1,Building 10,Wujiu Suo,Shiqiao Pu,Within the inner ring,Jiulongpo District,Chongqing,400039,P.R.C.</t>
+  </si>
+  <si>
+    <t>公司备货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nutrilon 1 Allergy care (450 g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Ranfen</t>
+  </si>
+  <si>
+    <t>Building 15,No. 471,Guiping Road,Shanghai,200233,P.R.C.</t>
+  </si>
+  <si>
+    <t>Hipp Junior Combiotik 4 (600 g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Nutrilon 2 Allergy care (450 g)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Duan Lingling</t>
-  </si>
-  <si>
-    <t>902,Building 3,Er Qi,Yunkai Xiyuan,Huanghe Road,Xiaohe District,Guiyang,Guizhou Province,550000,P.R.C.</t>
-  </si>
-  <si>
-    <t>Hipp Junior Combiotik 4 (600 g)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Xiaolan</t>
-  </si>
-  <si>
-    <t>3--3,Unit 1,Building 10,Wujiu Suo,Shiqiao Pu,Within the inner ring,Jiulongpo District,Chongqing,400039,P.R.C.</t>
-  </si>
-  <si>
-    <t>公司备货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nutrilon 1 Allergy care (450 g)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Ranfen</t>
-  </si>
-  <si>
-    <t>Building 15,No. 471,Guiping Road,Shanghai,200233,P.R.C.</t>
+    <t>产品文件表中的订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EanCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品文件表中的商品ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品文件表中的商品ID=productlist表中的encode，查找对应的Product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品文件表中的订购数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品文件表中的客户姓名翻译</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品文件表中的联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMS No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品文件表中的客户地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -629,7 +697,7 @@
         <v>49232110561</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5">
         <v>8712400736596</v>
@@ -638,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4">
         <v>18613214617</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="28.5">
@@ -655,20 +723,20 @@
         <v>48368916947</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4">
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4">
         <v>13696491253</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="14.25">
@@ -676,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>8712400771092</v>
@@ -688,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7">
         <v>15000201879</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="14.25">
@@ -711,6 +779,78 @@
       <c r="D8" s="5"/>
       <c r="F8" s="10"/>
       <c r="H8" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
